--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -644,7 +644,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
